--- a/data/Recursos digitales del curso básico.xlsx
+++ b/data/Recursos digitales del curso básico.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="1" state="visible" r:id="rId2"/>
@@ -120,7 +120,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="150">
   <si>
     <t xml:space="preserve">Registro de recursos Bolivia</t>
   </si>
@@ -194,54 +194,81 @@
     <t xml:space="preserve">Audio acompañado de infografía para dialogar del tema de CB a través de mensajería instantánea.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1STO4XZfe-t5SWGSuGIvpK4p-GPOfq4wT/view?usp=sharing</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEMA 2 - AUDIO EXPLICATIVO</t>
   </si>
   <si>
     <t xml:space="preserve">Tema 2: Consulta preconcepcional y 3+9</t>
   </si>
   <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1HqlH43JZlDxOWesiUJXimP2PirVJb_2y/view?usp=sharing</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEMA 5 - AUDIO EXPLICATIVO</t>
   </si>
   <si>
     <t xml:space="preserve">Tema 5: Enfermedades Maternas ITS Violencia</t>
   </si>
   <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1y-txpgS5aahNKDQV07Pxv4zV6FS-ySYH/view?usp=sharing</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEMA 7 - AUDIO EXPLICATIVO</t>
   </si>
   <si>
     <t xml:space="preserve">Tema 7: Drogas Sociales</t>
   </si>
   <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1PzRGUh-8ZERlGLcTjCYXx3rnyGaPzNgG/view?usp=sharing</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEMA 9 - AUDIO EXPLICATIVO</t>
   </si>
   <si>
     <t xml:space="preserve">Tema 9: Responsabilidad de pareja y derechos</t>
   </si>
   <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1tk4vrSERj74cJyUD4IWSjHrQUZkQJP6F/view?usp=sharing</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEMA 11 - AUDIO EXPLICATIVO</t>
   </si>
   <si>
     <t xml:space="preserve">Tema 11: El ABCD PreNatal, Dar Amor.</t>
   </si>
   <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/18H4pDoz0nBkaj67xBqH4QyLr2IQbwtQw/view?usp=sharing</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEMA 14 - AUDIO EXPLICATIVO</t>
   </si>
   <si>
     <t xml:space="preserve">Tema 14: Agente de cambio y contexto. </t>
   </si>
   <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1-NF8IQlpvHGpQlcMvfPxt3kJ_Cy3OHjX/view?usp=sharing</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEMA 15 - AUDIO EXPLICATIVO</t>
   </si>
   <si>
     <t xml:space="preserve">Tema 15: Orientaciones pedagógicas para la Acción</t>
   </si>
   <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1KQJGMpsia0z1lpPG1LFDE-FmP-p8eB2l/view?usp=sharing</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEMA 16 - AUDIO EXPLICATIVO</t>
   </si>
   <si>
     <t xml:space="preserve">Tema 16: Campaña #YoDecido</t>
   </si>
   <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1ppsMJcumu659I0YRCRTpRwiFNHBvsnXp/view?usp=sharing</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEMA 1 - INFOGRAFÍA</t>
   </si>
   <si>
@@ -251,28 +278,52 @@
     <t xml:space="preserve">Infografía para desarrollar la Unidad de Manera Asincrónica</t>
   </si>
   <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1OlpWPzm_aHWmmM9fwBq8iQ1rXDWJ-TzK/view?usp=sharing</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEMA 2 - INFOGRAFÍA</t>
   </si>
   <si>
     <t xml:space="preserve">TEMA 5 - INFOGRAFÍA</t>
   </si>
   <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1bKcv0kYsN72wOB5Sb3eRa1kUq1iTi08n/view?usp=sharing</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEMA 7 - INFOGRAFÍA</t>
   </si>
   <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1Lweu5o6jHfDOGsQtZ3i1UT0wahTNbw25/view?usp=sharing</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEMA 9 - INFOGRAFÍA</t>
   </si>
   <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1Y_iN9wGINnTs6FgG6cTzggFNhaMr5D_l/view?usp=sharing</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEMA 11 - INFOGRAFÍA</t>
   </si>
   <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1JUenJkkH7lINUUhbQS_1h1nQCk8REoTN/view?usp=sharing</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEMA 14 - INFOGRAFÍA</t>
   </si>
   <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1rPflcy0sPnnN5z-u0co34UfgWhim0YcO/view?usp=sharing</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEMA 15 - INFOGRAFÍA</t>
   </si>
   <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1WQDn9Mra0FAdHB3WRVG3Dz-26qLwd-Q5/view?usp=sharing</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEMA 16 - INFOGRAFÍA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://drive.google.com/file/d/1w7-shR9pL75Niv1LhJApovMtWwbFAAj1/view?usp=sharing</t>
   </si>
   <si>
     <t xml:space="preserve">Encuesta para Población Meta-CAP´s</t>
@@ -928,9 +979,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>509400</xdr:colOff>
+      <xdr:colOff>509040</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>160200</xdr:rowOff>
+      <xdr:rowOff>159840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -940,7 +991,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="9360" y="0"/>
-          <a:ext cx="5614920" cy="2760480"/>
+          <a:ext cx="5620680" cy="2760120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1076,7 +1127,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="1"/>
@@ -1297,11 +1348,11 @@
   </sheetPr>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.14"/>
@@ -1613,11 +1664,11 @@
   </sheetPr>
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.14"/>
@@ -1702,11 +1753,13 @@
       <c r="K2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="3"/>
+      <c r="L2" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>18</v>
@@ -1730,7 +1783,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>22</v>
@@ -1738,11 +1791,13 @@
       <c r="K3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>18</v>
@@ -1766,7 +1821,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>22</v>
@@ -1774,11 +1829,13 @@
       <c r="K4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
@@ -1802,7 +1859,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>22</v>
@@ -1810,11 +1867,13 @@
       <c r="K5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>18</v>
@@ -1838,7 +1897,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>22</v>
@@ -1846,11 +1905,13 @@
       <c r="K6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="3"/>
+      <c r="L6" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
@@ -1874,7 +1935,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>22</v>
@@ -1882,11 +1943,13 @@
       <c r="K7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="3"/>
+      <c r="L7" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>18</v>
@@ -1910,7 +1973,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>22</v>
@@ -1918,11 +1981,13 @@
       <c r="K8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L8" s="3"/>
+      <c r="L8" s="3" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>18</v>
@@ -1946,7 +2011,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>22</v>
@@ -1954,11 +2019,13 @@
       <c r="K9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="5"/>
+      <c r="L9" s="5" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>18</v>
@@ -1982,7 +2049,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>22</v>
@@ -1990,14 +2057,16 @@
       <c r="K10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="5"/>
+      <c r="L10" s="5" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -2024,16 +2093,18 @@
         <v>22</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L11" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>19</v>
@@ -2054,22 +2125,24 @@
         <v>1</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L12" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>19</v>
@@ -2090,22 +2163,24 @@
         <v>1</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L13" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
@@ -2126,22 +2201,24 @@
         <v>1</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L14" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="5" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -2162,22 +2239,24 @@
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L15" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="5" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>19</v>
@@ -2198,22 +2277,24 @@
         <v>1</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L16" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="5" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -2234,22 +2315,24 @@
         <v>1</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L17" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="5" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -2270,22 +2353,24 @@
         <v>1</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L18" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="L18" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>41</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -2306,15 +2391,17 @@
         <v>1</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>22</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L19" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
@@ -2393,7 +2480,7 @@
       <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.14"/>
@@ -2446,10 +2533,10 @@
     </row>
     <row r="2" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="9" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>19</v>
@@ -2468,22 +2555,22 @@
         <v>13</v>
       </c>
       <c r="I2" s="14" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J2" s="14" t="s">
         <v>22</v>
       </c>
       <c r="K2" s="14"/>
       <c r="L2" s="15" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="16" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>56</v>
+        <v>73</v>
       </c>
       <c r="C3" s="10" t="s">
         <v>19</v>
@@ -2502,22 +2589,22 @@
         <v>1</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>22</v>
       </c>
       <c r="K3" s="17"/>
       <c r="L3" s="18" t="s">
-        <v>57</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="16" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>19</v>
@@ -2536,22 +2623,22 @@
         <v>3</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J4" s="17" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="17"/>
       <c r="L4" s="18" t="s">
-        <v>60</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="16" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>19</v>
@@ -2568,22 +2655,22 @@
         <v>1</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="J5" s="17" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="18" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="22" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>19</v>
@@ -2600,22 +2687,22 @@
         <v>1</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="17"/>
       <c r="L6" s="18" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="16" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>19</v>
@@ -2632,14 +2719,14 @@
         <v>1</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="J7" s="17" t="s">
         <v>22</v>
       </c>
       <c r="K7" s="17"/>
       <c r="L7" s="18" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2839,7 +2926,7 @@
       <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.53515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="20.14"/>
@@ -2892,10 +2979,10 @@
     </row>
     <row r="2" customFormat="false" ht="49.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="25" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>19</v>
@@ -2916,22 +3003,22 @@
         <v>8</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="26" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>19</v>
@@ -2952,22 +3039,22 @@
         <v>5</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="26" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="25" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>19</v>
@@ -2988,22 +3075,22 @@
         <v>5</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="26" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="25" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>19</v>
@@ -3024,22 +3111,22 @@
         <v>5</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="26" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="34.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="25" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>19</v>
@@ -3060,22 +3147,22 @@
         <v>3</v>
       </c>
       <c r="I6" s="27" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="26" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="31.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="25" t="s">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>19</v>
@@ -3096,22 +3183,22 @@
         <v>3</v>
       </c>
       <c r="I7" s="27" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="26" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="44.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="25" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>19</v>
@@ -3132,22 +3219,22 @@
         <v>5</v>
       </c>
       <c r="I8" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="26" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="25" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>19</v>
@@ -3168,22 +3255,22 @@
         <v>5</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K9" s="5"/>
       <c r="L9" s="26" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="41.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="25" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>19</v>
@@ -3204,22 +3291,22 @@
         <v>3</v>
       </c>
       <c r="I10" s="28" t="s">
-        <v>95</v>
+        <v>112</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K10" s="5"/>
       <c r="L10" s="26" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="25" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>19</v>
@@ -3240,22 +3327,22 @@
         <v>3</v>
       </c>
       <c r="I11" s="28" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K11" s="5"/>
       <c r="L11" s="26" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="39" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="25" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="B12" s="25" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>19</v>
@@ -3276,22 +3363,22 @@
         <v>5</v>
       </c>
       <c r="I12" s="28" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K12" s="5"/>
       <c r="L12" s="29" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="32.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="25" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>19</v>
@@ -3312,22 +3399,22 @@
         <v>3</v>
       </c>
       <c r="I13" s="28" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K13" s="5"/>
       <c r="L13" s="29" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="25" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>19</v>
@@ -3348,22 +3435,22 @@
         <v>5</v>
       </c>
       <c r="I14" s="28" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K14" s="5"/>
       <c r="L14" s="29" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="45.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="25" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B15" s="25" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>19</v>
@@ -3384,22 +3471,22 @@
         <v>3</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K15" s="5"/>
       <c r="L15" s="29" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="25" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>19</v>
@@ -3420,22 +3507,22 @@
         <v>5</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K16" s="5"/>
       <c r="L16" s="29" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="25" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B17" s="25" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>19</v>
@@ -3456,22 +3543,22 @@
         <v>3</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K17" s="5"/>
       <c r="L17" s="29" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B18" s="25" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>19</v>
@@ -3492,22 +3579,22 @@
         <v>3</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K18" s="5"/>
       <c r="L18" s="29" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="25" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>19</v>
@@ -3528,22 +3615,22 @@
         <v>8</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="29" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="25" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
       <c r="B20" s="25" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>19</v>
@@ -3562,22 +3649,22 @@
         <v>1</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K20" s="5"/>
       <c r="L20" s="29" t="s">
-        <v>126</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="25" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="B21" s="25" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>19</v>
@@ -3590,30 +3677,30 @@
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>3</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="L21" s="29" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="25" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="B22" s="25" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>19</v>
@@ -3632,16 +3719,16 @@
         <v>5</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="L22" s="29" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
